--- a/dummy_file/ST-2025-03-002_SERVICE(FISCHER BELL PRIVATE LTD).xlsx
+++ b/dummy_file/ST-2025-03-002_SERVICE(FISCHER BELL PRIVATE LTD).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ST-Service\PythonRollBack\ExcelScanner\dummy_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A42B4-2479-410C-8A70-369FF9BEB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AA7A32-6DD8-45E8-BF82-DCA6F384808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t>No.</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>Lim Win Win &lt;sc@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Get Page Info</t>
+  </si>
+  <si>
+    <t>Page Content</t>
+  </si>
+  <si>
+    <t>Cell Info</t>
+  </si>
+  <si>
+    <t>Cell Info With Offset</t>
   </si>
 </sst>
 </file>
@@ -988,121 +1000,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1916,8 +1928,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="102" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,10 +1992,10 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
-      <c r="P3" s="93" t="s">
+      <c r="P3" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="98" t="str">
+      <c r="Q3" s="91" t="str">
         <f>IF(ISNUMBER(SEARCH("2022",Q6)),"7%",IF(ISNUMBER(SEARCH("2023",Q6)),"8%",IF(ISNUMBER(SEARCH("2024",Q6)),"9%",IF(ISNUMBER(SEARCH("2025",Q6)),"9%","0"))))</f>
         <v>9%</v>
       </c>
@@ -2000,8 +2012,8 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="98"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
     </row>
     <row r="5" spans="1:20" s="16" customFormat="1" ht="6" x14ac:dyDescent="0.15">
       <c r="I5" s="39"/>
@@ -2012,28 +2024,28 @@
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="90" t="str">
+      <c r="B6" s="92" t="str">
         <f>R23</f>
         <v>FISCHER BELL PRIVATE LTD</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="94" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="P6" s="93" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="P6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="101">
+      <c r="Q6" s="95">
         <v>2025</v>
       </c>
       <c r="R6" s="30"/>
@@ -2042,131 +2054,134 @@
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="90" t="str">
+      <c r="B7" s="92" t="str">
         <f t="shared" ref="B7:B9" si="0">R24</f>
         <v>1 CORPORATION DRIVE</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="101"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="30"/>
       <c r="T7" s="76"/>
     </row>
     <row r="8" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="90" t="str">
+      <c r="B8" s="92" t="str">
         <f t="shared" si="0"/>
         <v>#09-05 REVV</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="P8" s="93" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="P8" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="104">
+      <c r="Q8" s="98">
         <v>2</v>
       </c>
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="90" t="str">
+      <c r="B9" s="92" t="str">
         <f t="shared" si="0"/>
         <v>SINGAPORE 619775</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="99" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="100" t="str">
+      <c r="K9" s="94" t="str">
         <f>Q13</f>
         <v>ST-2025-03-002</v>
       </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="104"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="98"/>
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="90" t="str">
+      <c r="B10" s="92" t="str">
         <f>R27</f>
         <v>WIN WIN</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="90" t="str">
+      <c r="G10" s="92" t="str">
         <f>R28</f>
         <v>8899 5233</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
       <c r="P10" s="70" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="29"/>
       <c r="R10" s="30"/>
+      <c r="T10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="100">
         <f>Q12</f>
         <v>45810</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
       <c r="P11" s="70" t="s">
         <v>34</v>
       </c>
@@ -2174,32 +2189,35 @@
         <v>33</v>
       </c>
       <c r="R11" s="30"/>
+      <c r="T11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="90" t="str">
+      <c r="B12" s="92" t="str">
         <f>R30</f>
         <v>FISCHER BELL PRIVATE LTD</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="96" t="str">
+      <c r="K12" s="102" t="str">
         <f>Q14</f>
         <v>SGD</v>
       </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
       <c r="P12" s="70" t="s">
         <v>17</v>
       </c>
@@ -2207,30 +2225,33 @@
         <v>45810</v>
       </c>
       <c r="R12" s="30"/>
+      <c r="T12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="90" t="str">
+      <c r="B13" s="92" t="str">
         <f>R31</f>
         <v>1 CORPORATION DRIVE</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="83" t="str">
+      <c r="K13" s="79" t="str">
         <f>Q15</f>
         <v>PAYMENT UPON JOB COMPLETION</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
       <c r="P13" s="70" t="s">
         <v>31</v>
       </c>
@@ -2239,30 +2260,33 @@
         <v>ST-2025-03-002</v>
       </c>
       <c r="R13" s="30"/>
+      <c r="T13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="90" t="str">
+      <c r="B14" s="92" t="str">
         <f>R32</f>
         <v>#09-05 REVV</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="97" t="str">
+      <c r="K14" s="103" t="str">
         <f>IF(Q16="C.W.DEE","DEE CHEN WEE",IF(Q16="G.L.NG","WINSTON NG",IF(Q16="SIM","SIM",IF(Q16="SALES2","SALES 2",IF(Q16="COMPUTER","COMPUTER","NO MATCH")))))</f>
         <v>SIM</v>
       </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
       <c r="O14" s="3"/>
       <c r="P14" s="70" t="s">
         <v>18</v>
@@ -2274,27 +2298,27 @@
     </row>
     <row r="15" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="90" t="str">
+      <c r="B15" s="92" t="str">
         <f>R33</f>
         <v>SINGAPORE 619775</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="102" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="103" t="str">
+      <c r="K15" s="97" t="str">
         <f>IF(ISBLANK(Q18)=TRUE,"N.A", Q18)</f>
         <v>Lim Win Win &lt;sc@gmail.com&gt;</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="1"/>
       <c r="P15" s="70" t="s">
         <v>19</v>
@@ -2308,27 +2332,27 @@
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="90" t="str">
+      <c r="B16" s="92" t="str">
         <f>R34</f>
         <v>SIM</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="90" t="str">
+      <c r="G16" s="92" t="str">
         <f>R36</f>
         <v>8899 5766</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="2"/>
       <c r="P16" s="70" t="s">
         <v>20</v>
@@ -2347,27 +2371,27 @@
       <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
       <c r="J18" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89" t="s">
+      <c r="L18" s="104"/>
+      <c r="M18" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="89"/>
+      <c r="N18" s="104"/>
       <c r="P18" s="70" t="s">
         <v>37</v>
       </c>
@@ -2377,37 +2401,37 @@
     </row>
     <row r="19" spans="1:21" s="74" customFormat="1" ht="5.25" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="61"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
       <c r="P20" s="71" t="s">
         <v>23</v>
       </c>
@@ -2418,19 +2442,19 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="61"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
       <c r="P21" s="71" t="s">
         <v>24</v>
       </c>
@@ -2440,19 +2464,19 @@
     </row>
     <row r="22" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="61"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
       <c r="T22" s="76" t="s">
         <v>32</v>
       </c>
@@ -2464,28 +2488,28 @@
       <c r="A23" s="63">
         <v>1</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="61">
         <v>1</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="77">
         <v>110</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79">
+      <c r="L23" s="77"/>
+      <c r="M23" s="77">
         <f>K23*J23</f>
         <v>110</v>
       </c>
-      <c r="N23" s="79"/>
+      <c r="N23" s="77"/>
       <c r="P23" s="70" t="s">
         <v>1</v>
       </c>
@@ -2505,22 +2529,22 @@
     </row>
     <row r="24" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
       <c r="J24" s="61"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="P24" s="93" t="s">
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="P24" s="90" t="s">
         <v>14</v>
       </c>
       <c r="Q24" s="65" t="s">
@@ -2539,22 +2563,22 @@
     </row>
     <row r="25" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="P25" s="93"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="P25" s="90"/>
       <c r="Q25" s="65" t="s">
         <v>61</v>
       </c>
@@ -2571,22 +2595,22 @@
     </row>
     <row r="26" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="P26" s="93"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="P26" s="90"/>
       <c r="Q26" s="65" t="s">
         <v>62</v>
       </c>
@@ -2603,21 +2627,21 @@
     </row>
     <row r="27" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
       <c r="J27" s="61"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
       <c r="P27" s="70" t="s">
         <v>15</v>
       </c>
@@ -2637,21 +2661,21 @@
     </row>
     <row r="28" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
       <c r="J28" s="61"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
       <c r="P28" s="70" t="s">
         <v>16</v>
       </c>
@@ -2671,21 +2695,21 @@
     </row>
     <row r="29" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
       <c r="J29" s="61"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
       <c r="T29" t="s">
         <v>80</v>
       </c>
@@ -2695,20 +2719,20 @@
     </row>
     <row r="30" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="P30" s="93" t="s">
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="P30" s="90" t="s">
         <v>2</v>
       </c>
       <c r="Q30" s="65" t="s">
@@ -2727,20 +2751,20 @@
     </row>
     <row r="31" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
       <c r="J31" s="61"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="P31" s="93"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="P31" s="90"/>
       <c r="Q31" s="65" t="s">
         <v>60</v>
       </c>
@@ -2768,11 +2792,11 @@
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
       <c r="J32" s="59"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="P32" s="93"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="P32" s="90"/>
       <c r="Q32" s="65" t="s">
         <v>61</v>
       </c>
@@ -2791,29 +2815,29 @@
       <c r="A33" s="63">
         <v>2</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
       <c r="J33" s="61">
         <v>1</v>
       </c>
-      <c r="K33" s="79">
+      <c r="K33" s="77">
         <v>130</v>
       </c>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79">
+      <c r="L33" s="77"/>
+      <c r="M33" s="77">
         <f>K33*J33</f>
         <v>130</v>
       </c>
-      <c r="N33" s="79"/>
-      <c r="P33" s="93"/>
+      <c r="N33" s="77"/>
+      <c r="P33" s="90"/>
       <c r="Q33" s="65" t="s">
         <v>62</v>
       </c>
@@ -2830,21 +2854,21 @@
     </row>
     <row r="34" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
       <c r="J34" s="61"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
       <c r="P34" s="70" t="s">
         <v>15</v>
       </c>
@@ -2864,21 +2888,21 @@
     </row>
     <row r="35" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="65"/>
       <c r="R35" s="16"/>
@@ -2902,10 +2926,10 @@
       <c r="H36" s="81"/>
       <c r="I36" s="81"/>
       <c r="J36" s="59"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
       <c r="P36" s="70" t="s">
         <v>16</v>
       </c>
@@ -2936,10 +2960,10 @@
       <c r="H37" s="81"/>
       <c r="I37" s="81"/>
       <c r="J37" s="61"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
       <c r="P37" s="62" t="s">
         <v>47</v>
       </c>
@@ -2966,10 +2990,10 @@
       <c r="H38" s="81"/>
       <c r="I38" s="81"/>
       <c r="J38" s="75"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
       <c r="T38" t="s">
         <v>6</v>
       </c>
@@ -2979,19 +3003,19 @@
     </row>
     <row r="39" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="61"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
       <c r="P39" s="45" t="s">
         <v>25</v>
       </c>
@@ -3007,19 +3031,19 @@
     </row>
     <row r="40" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="61"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
       <c r="P40" s="45" t="s">
         <v>25</v>
       </c>
@@ -3035,21 +3059,21 @@
     </row>
     <row r="41" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="61"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
       <c r="T41" t="s">
         <v>3</v>
       </c>
@@ -3064,28 +3088,28 @@
       <c r="A42" s="63">
         <v>3</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
       <c r="J42" s="61">
         <v>1</v>
       </c>
-      <c r="K42" s="79">
+      <c r="K42" s="77">
         <v>50</v>
       </c>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79">
+      <c r="L42" s="77"/>
+      <c r="M42" s="77">
         <f>K42*J42</f>
         <v>50</v>
       </c>
-      <c r="N42" s="79"/>
+      <c r="N42" s="77"/>
       <c r="P42" s="45" t="s">
         <v>26</v>
       </c>
@@ -3104,19 +3128,19 @@
     </row>
     <row r="43" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="61"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
       <c r="P43" s="45" t="s">
         <v>26</v>
       </c>
@@ -3135,19 +3159,19 @@
     </row>
     <row r="44" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="61"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
       <c r="P44" s="45" t="s">
         <v>29</v>
       </c>
@@ -3166,48 +3190,48 @@
     </row>
     <row r="45" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
       <c r="J45" s="61"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
       <c r="T45"/>
     </row>
     <row r="46" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
       <c r="J46" s="61"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
       <c r="T46"/>
     </row>
     <row r="47" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
       <c r="T47"/>
     </row>
     <row r="48" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3221,10 +3245,10 @@
       <c r="H48" s="81"/>
       <c r="I48" s="81"/>
       <c r="J48" s="59"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
       <c r="T48" s="76" t="s">
         <v>115</v>
       </c>
@@ -3234,21 +3258,21 @@
     </row>
     <row r="49" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
       <c r="J49" s="59"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
       <c r="T49" s="76" t="s">
         <v>79</v>
       </c>
@@ -3258,21 +3282,21 @@
     </row>
     <row r="50" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="59"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
       <c r="T50" t="s">
         <v>81</v>
       </c>
@@ -3282,21 +3306,21 @@
     </row>
     <row r="51" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
       <c r="J51" s="59"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
       <c r="T51" t="s">
         <v>82</v>
       </c>
@@ -3306,21 +3330,21 @@
     </row>
     <row r="52" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="59"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
       <c r="T52" t="s">
         <v>83</v>
       </c>
@@ -3339,10 +3363,10 @@
       <c r="H53" s="81"/>
       <c r="I53" s="81"/>
       <c r="J53" s="59"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
       <c r="T53" t="s">
         <v>77</v>
       </c>
@@ -3361,10 +3385,10 @@
       <c r="H54" s="81"/>
       <c r="I54" s="81"/>
       <c r="J54" s="59"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
       <c r="T54" t="s">
         <v>78</v>
       </c>
@@ -3374,19 +3398,19 @@
     </row>
     <row r="55" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
       <c r="J55" s="57"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="108"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
       <c r="P55" s="33"/>
       <c r="T55" t="s">
         <v>80</v>
@@ -3408,15 +3432,15 @@
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="109" t="s">
+      <c r="K56" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="L56" s="109"/>
-      <c r="M56" s="80">
+      <c r="L56" s="84"/>
+      <c r="M56" s="82">
         <f>SUM(M20:N55)</f>
         <v>290</v>
       </c>
-      <c r="N56" s="80"/>
+      <c r="N56" s="82"/>
       <c r="P56" s="35"/>
       <c r="T56" t="s">
         <v>84</v>
@@ -3427,28 +3451,28 @@
       <c r="V56" s="30"/>
     </row>
     <row r="57" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="109" t="str">
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="84" t="str">
         <f>IF(ISNUMBER(SEARCH("2022",Q6)),"7% GST",IF(ISNUMBER(SEARCH("2023",Q6)),"8% GST",IF(ISNUMBER(SEARCH("2024",Q6)),"9% GST",IF(ISNUMBER(SEARCH("2025",Q6)),"9% GST","0"))))</f>
         <v>9% GST</v>
       </c>
-      <c r="L57" s="109"/>
-      <c r="M57" s="80">
+      <c r="L57" s="84"/>
+      <c r="M57" s="82">
         <f>M56*IF(ISNUMBER(SEARCH("2022",Q6)),"7%",IF(ISNUMBER(SEARCH("2023",Q6)),"8%",IF(ISNUMBER(SEARCH("2024",Q6)),"9%",IF(ISNUMBER(SEARCH("2025",Q6)),"9%","0"))))</f>
         <v>26.099999999999998</v>
       </c>
-      <c r="N57" s="80"/>
+      <c r="N57" s="82"/>
       <c r="P57" s="35"/>
       <c r="T57" t="s">
         <v>85</v>
@@ -3459,27 +3483,27 @@
       <c r="V57" s="30"/>
     </row>
     <row r="58" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="109" t="s">
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="80">
+      <c r="L58" s="84"/>
+      <c r="M58" s="82">
         <f>M56+M57</f>
         <v>316.10000000000002</v>
       </c>
-      <c r="N58" s="80"/>
+      <c r="N58" s="82"/>
       <c r="P58" s="35"/>
       <c r="T58" t="s">
         <v>86</v>
@@ -3490,16 +3514,16 @@
       <c r="V58" s="30"/>
     </row>
     <row r="59" spans="1:22" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
       <c r="M59" s="20"/>
@@ -3514,16 +3538,16 @@
       <c r="V59" s="30"/>
     </row>
     <row r="60" spans="1:22" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
       <c r="M60" s="20"/>
@@ -3538,16 +3562,16 @@
       <c r="V60" s="30"/>
     </row>
     <row r="61" spans="1:22" s="56" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
       <c r="K61" s="55"/>
       <c r="L61" s="55"/>
       <c r="M61" s="54"/>
@@ -3586,24 +3610,24 @@
       <c r="V62" s="30"/>
     </row>
     <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="87" t="s">
+      <c r="I63" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
       <c r="P63" s="21"/>
       <c r="T63" s="30" t="s">
         <v>119</v>
@@ -3614,20 +3638,20 @@
       <c r="V63" s="30"/>
     </row>
     <row r="64" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
+      <c r="K64" s="110"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="110"/>
+      <c r="N64" s="110"/>
       <c r="P64" s="34"/>
       <c r="T64" t="s">
         <v>120</v>
@@ -3638,20 +3662,20 @@
       <c r="V64" s="30"/>
     </row>
     <row r="65" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
       <c r="P65" s="34"/>
       <c r="T65" t="s">
         <v>22</v>
@@ -3662,20 +3686,20 @@
       <c r="V65" s="30"/>
     </row>
     <row r="66" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
       <c r="P66" s="34"/>
       <c r="T66" t="s">
         <v>105</v>
@@ -3686,20 +3710,20 @@
       <c r="V66" s="30"/>
     </row>
     <row r="67" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
       <c r="T67" s="30" t="s">
         <v>104</v>
       </c>
@@ -3709,20 +3733,20 @@
       <c r="V67" s="30"/>
     </row>
     <row r="68" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
       <c r="T68" t="s">
         <v>3</v>
       </c>
@@ -3734,23 +3758,23 @@
       </c>
     </row>
     <row r="69" spans="1:22" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="105"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
       <c r="G69" s="3"/>
-      <c r="I69" s="105" t="s">
+      <c r="I69" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
-      <c r="N69" s="105"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
       <c r="P69" s="24"/>
       <c r="T69" t="s">
         <v>112</v>
@@ -3796,28 +3820,28 @@
       <c r="A78" s="63">
         <v>2</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
       <c r="J78" s="61">
         <v>1</v>
       </c>
-      <c r="K78" s="79">
+      <c r="K78" s="77">
         <v>80</v>
       </c>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79">
+      <c r="L78" s="77"/>
+      <c r="M78" s="77">
         <f>K78*J78</f>
         <v>80</v>
       </c>
-      <c r="N78" s="79"/>
+      <c r="N78" s="77"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
@@ -3832,180 +3856,180 @@
       <c r="H79" s="81"/>
       <c r="I79" s="81"/>
       <c r="J79" s="59"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
-      <c r="M79" s="80"/>
-      <c r="N79" s="80"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="63"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
       <c r="J80" s="59"/>
-      <c r="K80" s="80"/>
-      <c r="L80" s="80"/>
-      <c r="M80" s="80"/>
-      <c r="N80" s="80"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
       <c r="J81" s="61"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="79"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="63"/>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
       <c r="J82" s="61"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="63"/>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
       <c r="J83" s="61"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="63"/>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
       <c r="J84" s="61"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="79"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="63"/>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
       <c r="J85" s="61"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
+      <c r="K85" s="106"/>
+      <c r="L85" s="106"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="63"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
       <c r="J86" s="61"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
-      <c r="N86" s="79"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="77"/>
+      <c r="N86" s="77"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="63"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
+      <c r="I87" s="80"/>
       <c r="J87" s="61"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="63"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="78"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
       <c r="J88" s="61"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="63"/>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
       <c r="J89" s="61"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="79"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E90"/>
@@ -4015,6 +4039,177 @@
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0"/>
   <dataConsolidate/>
   <mergeCells count="195">
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="I64:N68"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="J6:N8"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A64:F68"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:N87"/>
     <mergeCell ref="B41:I41"/>
@@ -4039,185 +4234,29 @@
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B85:I85"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A64:F68"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="J6:N8"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="I64:N68"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Invoice Number" prompt="Click Top Spin Button for Invoice Running Sequence Number" sqref="Q13" xr:uid="{93C5DEB2-7118-43C2-9675-92FD1E294282}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Invoice Number" prompt="Click Side Spin Button for Invoice Running Sequence Number" sqref="Q6:Q9" xr:uid="{6F8744D7-E8D8-4C44-B3D7-AF6AF5D92AB6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="Ctrl + : _x000a_For Today Date" sqref="Q12" xr:uid="{91775C7C-1896-4641-8458-B77FC8CB6113}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sales Person" prompt="Select" sqref="Q16" xr:uid="{7A5E5A6E-6826-4F18-BBB6-FF81D238813D}">
       <formula1>PAN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Currency" prompt="Default Currency SGD_x000a_or Select" sqref="Q14" xr:uid="{A94FB74B-56C5-4252-9052-D71D3E562016}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quotation Type" prompt="Select" sqref="Q11" xr:uid="{314A267C-1E3B-431E-80C5-04CA31F345B1}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11 A59:J61 B62:J62" xr:uid="{7C3D4E3D-7E60-47A5-95C5-23B14A9A28BB}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Revised Version" prompt="Select" sqref="Q10" xr:uid="{98294576-23E4-4EEB-ADAD-83C774C8289E}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Payment Term" prompt="Select" sqref="Q15" xr:uid="{0E4E125E-4D05-46B7-A73F-EABDA48E4768}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -4279,53 +4318,5 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Currency" prompt="Default Currency SGD_x000a_or Select" xr:uid="{A94FB74B-56C5-4252-9052-D71D3E562016}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quotation Type" prompt="Select" xr:uid="{314A267C-1E3B-431E-80C5-04CA31F345B1}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C3D4E3D-7E60-47A5-95C5-23B14A9A28BB}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2CAD1AA-8469-4F16-9F28-817793979DD4}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B62:J62</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Revised Version" prompt="Select" xr:uid="{98294576-23E4-4EEB-ADAD-83C774C8289E}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Payment Term" prompt="Select" xr:uid="{0E4E125E-4D05-46B7-A73F-EABDA48E4768}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74A3FC44-EC98-41EA-8670-45D7107BB53B}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A59:J61</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/dummy_file/ST-2025-03-002_SERVICE(FISCHER BELL PRIVATE LTD).xlsx
+++ b/dummy_file/ST-2025-03-002_SERVICE(FISCHER BELL PRIVATE LTD).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ST-Service\PythonRollBack\ExcelScanner\dummy_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AA7A32-6DD8-45E8-BF82-DCA6F384808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C14DA4-371A-46E1-8DA4-47A8B4C19B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,121 +1000,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1926,10 +1930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,8 +1954,9 @@
     <col min="19" max="19" width="9.140625" style="19"/>
     <col min="20" max="20" width="19.140625" style="19" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" style="19" customWidth="1"/>
-    <col min="22" max="22" width="46.42578125" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="19"/>
+    <col min="22" max="22" width="18.140625" style="19" customWidth="1"/>
+    <col min="23" max="23" width="46" style="19" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -1992,10 +1997,10 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="91" t="str">
+      <c r="Q3" s="98" t="str">
         <f>IF(ISNUMBER(SEARCH("2022",Q6)),"7%",IF(ISNUMBER(SEARCH("2023",Q6)),"8%",IF(ISNUMBER(SEARCH("2024",Q6)),"9%",IF(ISNUMBER(SEARCH("2025",Q6)),"9%","0"))))</f>
         <v>9%</v>
       </c>
@@ -2012,8 +2017,8 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:20" s="16" customFormat="1" ht="6" x14ac:dyDescent="0.15">
       <c r="I5" s="39"/>
@@ -2024,28 +2029,28 @@
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="92" t="str">
+      <c r="B6" s="90" t="str">
         <f>R23</f>
         <v>FISCHER BELL PRIVATE LTD</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="99" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="P6" s="90" t="s">
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="P6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="101">
         <v>2025</v>
       </c>
       <c r="R6" s="30"/>
@@ -2054,105 +2059,105 @@
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="92" t="str">
+      <c r="B7" s="90" t="str">
         <f t="shared" ref="B7:B9" si="0">R24</f>
         <v>1 CORPORATION DRIVE</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="95"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="101"/>
       <c r="R7" s="30"/>
       <c r="T7" s="76"/>
     </row>
     <row r="8" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="92" t="str">
+      <c r="B8" s="90" t="str">
         <f t="shared" si="0"/>
         <v>#09-05 REVV</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="P8" s="90" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="P8" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="98">
+      <c r="Q8" s="104">
         <v>2</v>
       </c>
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="92" t="str">
+      <c r="B9" s="90" t="str">
         <f t="shared" si="0"/>
         <v>SINGAPORE 619775</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="94" t="str">
+      <c r="K9" s="100" t="str">
         <f>Q13</f>
         <v>ST-2025-03-002</v>
       </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="98"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="104"/>
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="92" t="str">
+      <c r="B10" s="90" t="str">
         <f>R27</f>
         <v>WIN WIN</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="92" t="str">
+      <c r="G10" s="90" t="str">
         <f>R28</f>
         <v>8899 5233</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
       <c r="P10" s="70" t="s">
         <v>35</v>
       </c>
@@ -2164,24 +2169,24 @@
     </row>
     <row r="11" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="95">
         <f>Q12</f>
         <v>45810</v>
       </c>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
       <c r="P11" s="70" t="s">
         <v>34</v>
       </c>
@@ -2197,27 +2202,27 @@
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="92" t="str">
+      <c r="B12" s="90" t="str">
         <f>R30</f>
         <v>FISCHER BELL PRIVATE LTD</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="102" t="str">
+      <c r="K12" s="96" t="str">
         <f>Q14</f>
         <v>SGD</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
       <c r="P12" s="70" t="s">
         <v>17</v>
       </c>
@@ -2231,27 +2236,27 @@
     </row>
     <row r="13" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="92" t="str">
+      <c r="B13" s="90" t="str">
         <f>R31</f>
         <v>1 CORPORATION DRIVE</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="79" t="str">
+      <c r="K13" s="83" t="str">
         <f>Q15</f>
         <v>PAYMENT UPON JOB COMPLETION</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
       <c r="P13" s="70" t="s">
         <v>31</v>
       </c>
@@ -2266,27 +2271,27 @@
     </row>
     <row r="14" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="92" t="str">
+      <c r="B14" s="90" t="str">
         <f>R32</f>
         <v>#09-05 REVV</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="103" t="str">
+      <c r="K14" s="97" t="str">
         <f>IF(Q16="C.W.DEE","DEE CHEN WEE",IF(Q16="G.L.NG","WINSTON NG",IF(Q16="SIM","SIM",IF(Q16="SALES2","SALES 2",IF(Q16="COMPUTER","COMPUTER","NO MATCH")))))</f>
         <v>SIM</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
       <c r="O14" s="3"/>
       <c r="P14" s="70" t="s">
         <v>18</v>
@@ -2298,27 +2303,27 @@
     </row>
     <row r="15" spans="1:20" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="92" t="str">
+      <c r="B15" s="90" t="str">
         <f>R33</f>
         <v>SINGAPORE 619775</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="96" t="s">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="97" t="str">
+      <c r="K15" s="103" t="str">
         <f>IF(ISBLANK(Q18)=TRUE,"N.A", Q18)</f>
         <v>Lim Win Win &lt;sc@gmail.com&gt;</v>
       </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
       <c r="O15" s="1"/>
       <c r="P15" s="70" t="s">
         <v>19</v>
@@ -2332,27 +2337,27 @@
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="92" t="str">
+      <c r="B16" s="90" t="str">
         <f>R34</f>
         <v>SIM</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="92" t="str">
+      <c r="G16" s="90" t="str">
         <f>R36</f>
         <v>8899 5766</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
       <c r="O16" s="2"/>
       <c r="P16" s="70" t="s">
         <v>20</v>
@@ -2371,27 +2376,27 @@
       <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104" t="s">
+      <c r="L18" s="89"/>
+      <c r="M18" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="104"/>
+      <c r="N18" s="89"/>
       <c r="P18" s="70" t="s">
         <v>37</v>
       </c>
@@ -2401,37 +2406,37 @@
     </row>
     <row r="19" spans="1:21" s="74" customFormat="1" ht="5.25" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="61"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
       <c r="P20" s="71" t="s">
         <v>23</v>
       </c>
@@ -2442,19 +2447,19 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="61"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
       <c r="P21" s="71" t="s">
         <v>24</v>
       </c>
@@ -2464,19 +2469,19 @@
     </row>
     <row r="22" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="61"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
       <c r="T22" s="76" t="s">
         <v>32</v>
       </c>
@@ -2488,28 +2493,28 @@
       <c r="A23" s="63">
         <v>1</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="61">
         <v>1</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="79">
         <v>110</v>
       </c>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77">
+      <c r="L23" s="79"/>
+      <c r="M23" s="79">
         <f>K23*J23</f>
         <v>110</v>
       </c>
-      <c r="N23" s="77"/>
+      <c r="N23" s="79"/>
       <c r="P23" s="70" t="s">
         <v>1</v>
       </c>
@@ -2529,22 +2534,22 @@
     </row>
     <row r="24" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="61"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="P24" s="90" t="s">
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="P24" s="93" t="s">
         <v>14</v>
       </c>
       <c r="Q24" s="65" t="s">
@@ -2563,22 +2568,22 @@
     </row>
     <row r="25" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="P25" s="90"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="P25" s="93"/>
       <c r="Q25" s="65" t="s">
         <v>61</v>
       </c>
@@ -2595,22 +2600,22 @@
     </row>
     <row r="26" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="P26" s="90"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="P26" s="93"/>
       <c r="Q26" s="65" t="s">
         <v>62</v>
       </c>
@@ -2627,21 +2632,21 @@
     </row>
     <row r="27" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="61"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
       <c r="P27" s="70" t="s">
         <v>15</v>
       </c>
@@ -2661,21 +2666,21 @@
     </row>
     <row r="28" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="61"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
       <c r="P28" s="70" t="s">
         <v>16</v>
       </c>
@@ -2695,21 +2700,21 @@
     </row>
     <row r="29" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="61"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
       <c r="T29" t="s">
         <v>80</v>
       </c>
@@ -2719,20 +2724,20 @@
     </row>
     <row r="30" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="P30" s="90" t="s">
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="P30" s="93" t="s">
         <v>2</v>
       </c>
       <c r="Q30" s="65" t="s">
@@ -2751,20 +2756,20 @@
     </row>
     <row r="31" spans="1:21" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="61"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="P31" s="90"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="P31" s="93"/>
       <c r="Q31" s="65" t="s">
         <v>60</v>
       </c>
@@ -2792,11 +2797,11 @@
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
       <c r="J32" s="59"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="P32" s="90"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="P32" s="93"/>
       <c r="Q32" s="65" t="s">
         <v>61</v>
       </c>
@@ -2811,33 +2816,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <v>2</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="61">
         <v>1</v>
       </c>
-      <c r="K33" s="77">
+      <c r="K33" s="79">
         <v>130</v>
       </c>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77">
+      <c r="L33" s="79"/>
+      <c r="M33" s="79">
         <f>K33*J33</f>
         <v>130</v>
       </c>
-      <c r="N33" s="77"/>
-      <c r="P33" s="90"/>
+      <c r="N33" s="79"/>
+      <c r="P33" s="93"/>
       <c r="Q33" s="65" t="s">
         <v>62</v>
       </c>
@@ -2852,23 +2857,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="61"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
       <c r="P34" s="70" t="s">
         <v>15</v>
       </c>
@@ -2886,23 +2891,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="65"/>
       <c r="R35" s="16"/>
@@ -2913,7 +2918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="81" t="s">
         <v>66</v>
@@ -2926,10 +2931,10 @@
       <c r="H36" s="81"/>
       <c r="I36" s="81"/>
       <c r="J36" s="59"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
       <c r="P36" s="70" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="81" t="s">
         <v>67</v>
@@ -2960,10 +2965,10 @@
       <c r="H37" s="81"/>
       <c r="I37" s="81"/>
       <c r="J37" s="61"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
       <c r="P37" s="62" t="s">
         <v>47</v>
       </c>
@@ -2977,7 +2982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
       <c r="B38" s="81" t="s">
         <v>68</v>
@@ -2990,10 +2995,10 @@
       <c r="H38" s="81"/>
       <c r="I38" s="81"/>
       <c r="J38" s="75"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
       <c r="T38" t="s">
         <v>6</v>
       </c>
@@ -3001,21 +3006,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="61"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
       <c r="P39" s="45" t="s">
         <v>25</v>
       </c>
@@ -3029,21 +3034,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="61"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
       <c r="P40" s="45" t="s">
         <v>25</v>
       </c>
@@ -3057,59 +3062,62 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="61"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
       <c r="T41" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="30" t="s">
+      <c r="U41" s="111">
+        <v>2</v>
+      </c>
+      <c r="V41" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V41" s="30" t="s">
+      <c r="W41" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63">
         <v>3</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="61">
         <v>1</v>
       </c>
-      <c r="K42" s="77">
+      <c r="K42" s="79">
         <v>50</v>
       </c>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77">
+      <c r="L42" s="79"/>
+      <c r="M42" s="79">
         <f>K42*J42</f>
         <v>50</v>
       </c>
-      <c r="N42" s="77"/>
+      <c r="N42" s="79"/>
       <c r="P42" s="45" t="s">
         <v>26</v>
       </c>
@@ -3119,28 +3127,31 @@
       <c r="T42" t="s">
         <v>112</v>
       </c>
-      <c r="U42" s="30" t="s">
+      <c r="U42" s="111">
+        <v>2</v>
+      </c>
+      <c r="V42" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V42" s="30" t="s">
+      <c r="W42" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
       <c r="J43" s="61"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
       <c r="P43" s="45" t="s">
         <v>26</v>
       </c>
@@ -3150,28 +3161,31 @@
       <c r="T43" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="30" t="s">
+      <c r="U43" s="111">
+        <v>2</v>
+      </c>
+      <c r="V43" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V43" s="30" t="s">
+      <c r="W43" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
       <c r="J44" s="61"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
       <c r="P44" s="45" t="s">
         <v>29</v>
       </c>
@@ -3181,60 +3195,60 @@
       <c r="T44" t="s">
         <v>111</v>
       </c>
-      <c r="U44" s="30" t="s">
+      <c r="V44" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V44" s="30" t="s">
+      <c r="W44" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
       <c r="J45" s="61"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
       <c r="J46" s="61"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="81"/>
       <c r="C48" s="81"/>
@@ -3245,114 +3259,89 @@
       <c r="H48" s="81"/>
       <c r="I48" s="81"/>
       <c r="J48" s="59"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="T48" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="U48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="T48"/>
+    </row>
+    <row r="49" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="59"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="T49" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="T49"/>
+    </row>
+    <row r="50" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
       <c r="J50" s="59"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="T50" t="s">
-        <v>81</v>
-      </c>
-      <c r="U50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
       <c r="J51" s="59"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="T51" t="s">
-        <v>82</v>
-      </c>
-      <c r="U51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="T51"/>
+    </row>
+    <row r="52" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="59"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="T52" t="s">
-        <v>83</v>
-      </c>
-      <c r="U52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="81"/>
       <c r="C53" s="81"/>
@@ -3363,18 +3352,13 @@
       <c r="H53" s="81"/>
       <c r="I53" s="81"/>
       <c r="J53" s="59"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="T53" t="s">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="81"/>
       <c r="C54" s="81"/>
@@ -3385,41 +3369,41 @@
       <c r="H54" s="81"/>
       <c r="I54" s="81"/>
       <c r="J54" s="59"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="T54" t="s">
-        <v>78</v>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="T54" s="76" t="s">
+        <v>115</v>
       </c>
       <c r="U54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
       <c r="J55" s="57"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
       <c r="P55" s="33"/>
-      <c r="T55" t="s">
-        <v>80</v>
+      <c r="T55" s="76" t="s">
+        <v>79</v>
       </c>
       <c r="U55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="53"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -3432,160 +3416,166 @@
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="84" t="s">
+      <c r="K56" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="82">
+      <c r="L56" s="109"/>
+      <c r="M56" s="80">
         <f>SUM(M20:N55)</f>
         <v>290</v>
       </c>
-      <c r="N56" s="82"/>
+      <c r="N56" s="80"/>
       <c r="P56" s="35"/>
       <c r="T56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U56" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="V56" s="30"/>
-    </row>
-    <row r="57" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
+      <c r="W56" s="30"/>
+    </row>
+    <row r="57" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="84" t="str">
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="109" t="str">
         <f>IF(ISNUMBER(SEARCH("2022",Q6)),"7% GST",IF(ISNUMBER(SEARCH("2023",Q6)),"8% GST",IF(ISNUMBER(SEARCH("2024",Q6)),"9% GST",IF(ISNUMBER(SEARCH("2025",Q6)),"9% GST","0"))))</f>
         <v>9% GST</v>
       </c>
-      <c r="L57" s="84"/>
-      <c r="M57" s="82">
+      <c r="L57" s="109"/>
+      <c r="M57" s="80">
         <f>M56*IF(ISNUMBER(SEARCH("2022",Q6)),"7%",IF(ISNUMBER(SEARCH("2023",Q6)),"8%",IF(ISNUMBER(SEARCH("2024",Q6)),"9%",IF(ISNUMBER(SEARCH("2025",Q6)),"9%","0"))))</f>
         <v>26.099999999999998</v>
       </c>
-      <c r="N57" s="82"/>
+      <c r="N57" s="80"/>
       <c r="P57" s="35"/>
       <c r="T57" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U57" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="V57" s="30"/>
-    </row>
-    <row r="58" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
+      <c r="W57" s="30"/>
+    </row>
+    <row r="58" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="84" t="s">
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="84"/>
-      <c r="M58" s="82">
+      <c r="L58" s="109"/>
+      <c r="M58" s="80">
         <f>M56+M57</f>
         <v>316.10000000000002</v>
       </c>
-      <c r="N58" s="82"/>
+      <c r="N58" s="80"/>
       <c r="P58" s="35"/>
       <c r="T58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="V58" s="30"/>
-    </row>
-    <row r="59" spans="1:22" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
+      <c r="W58" s="30"/>
+    </row>
+    <row r="59" spans="1:23" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
       <c r="M59" s="20"/>
       <c r="N59" s="21"/>
       <c r="P59" s="21"/>
-      <c r="T59" s="19" t="s">
-        <v>87</v>
+      <c r="T59" t="s">
+        <v>77</v>
       </c>
       <c r="U59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="V59" s="30"/>
-    </row>
-    <row r="60" spans="1:22" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
+      <c r="W59" s="30"/>
+    </row>
+    <row r="60" spans="1:23" s="15" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
       <c r="M60" s="20"/>
       <c r="N60" s="21"/>
       <c r="P60" s="21"/>
-      <c r="T60" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="U60" s="19" t="s">
-        <v>100</v>
+      <c r="T60" t="s">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s">
+        <v>94</v>
       </c>
       <c r="V60" s="30"/>
-    </row>
-    <row r="61" spans="1:22" s="56" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
+      <c r="W60" s="30"/>
+    </row>
+    <row r="61" spans="1:23" s="56" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
       <c r="K61" s="55"/>
       <c r="L61" s="55"/>
       <c r="M61" s="54"/>
       <c r="N61" s="31"/>
       <c r="P61" s="31"/>
-      <c r="T61" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="U61" s="30" t="s">
-        <v>102</v>
+      <c r="T61" t="s">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s">
+        <v>95</v>
       </c>
       <c r="V61" s="30"/>
-    </row>
-    <row r="62" spans="1:22" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="30"/>
+    </row>
+    <row r="62" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3601,249 +3591,314 @@
       <c r="M62" s="50"/>
       <c r="N62" s="51"/>
       <c r="P62" s="51"/>
-      <c r="T62" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="U62" s="30" t="s">
-        <v>106</v>
+      <c r="T62" t="s">
+        <v>84</v>
+      </c>
+      <c r="U62" t="s">
+        <v>96</v>
       </c>
       <c r="V62" s="30"/>
-    </row>
-    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108" t="s">
+      <c r="W62" s="19"/>
+    </row>
+    <row r="63" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="108" t="s">
+      <c r="I63" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="108"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
       <c r="P63" s="21"/>
-      <c r="T63" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="U63" s="30" t="s">
-        <v>107</v>
+      <c r="T63" t="s">
+        <v>85</v>
+      </c>
+      <c r="U63" t="s">
+        <v>97</v>
       </c>
       <c r="V63" s="30"/>
-    </row>
-    <row r="64" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
+      <c r="W63" s="15"/>
+    </row>
+    <row r="64" spans="1:23" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
-      <c r="K64" s="110"/>
-      <c r="L64" s="110"/>
-      <c r="M64" s="110"/>
-      <c r="N64" s="110"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
       <c r="P64" s="34"/>
       <c r="T64" t="s">
-        <v>120</v>
-      </c>
-      <c r="U64" s="30" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="U64" t="s">
+        <v>98</v>
       </c>
       <c r="V64" s="30"/>
     </row>
-    <row r="65" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="87"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
+    <row r="65" spans="1:23" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="110"/>
-      <c r="K65" s="110"/>
-      <c r="L65" s="110"/>
-      <c r="M65" s="110"/>
-      <c r="N65" s="110"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
       <c r="P65" s="34"/>
-      <c r="T65" t="s">
-        <v>22</v>
-      </c>
-      <c r="U65" s="30" t="s">
-        <v>109</v>
+      <c r="T65" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U65" t="s">
+        <v>99</v>
       </c>
       <c r="V65" s="30"/>
     </row>
-    <row r="66" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
+    <row r="66" spans="1:23" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="110"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="110"/>
-      <c r="N66" s="110"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
       <c r="P66" s="34"/>
-      <c r="T66" t="s">
-        <v>105</v>
-      </c>
-      <c r="U66" s="30" t="s">
-        <v>110</v>
+      <c r="T66" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U66" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="V66" s="30"/>
     </row>
-    <row r="67" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
+    <row r="67" spans="1:23" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="110"/>
-      <c r="K67" s="110"/>
-      <c r="L67" s="110"/>
-      <c r="M67" s="110"/>
-      <c r="N67" s="110"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
       <c r="T67" s="30" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="U67" s="30" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="V67" s="30"/>
-    </row>
-    <row r="68" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
+      <c r="W67" s="56"/>
+    </row>
+    <row r="68" spans="1:23" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="110"/>
-      <c r="K68" s="110"/>
-      <c r="L68" s="110"/>
-      <c r="M68" s="110"/>
-      <c r="N68" s="110"/>
-      <c r="T68" t="s">
-        <v>3</v>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="T68" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="U68" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="V68" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="V68" s="30"/>
+      <c r="W68" s="52"/>
+    </row>
+    <row r="69" spans="1:23" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
       <c r="G69" s="3"/>
-      <c r="I69" s="86" t="s">
+      <c r="I69" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
       <c r="P69" s="24"/>
-      <c r="T69" t="s">
-        <v>112</v>
+      <c r="T69" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="U69" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="V69" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="V69" s="30"/>
+      <c r="W69" s="19"/>
+    </row>
+    <row r="70" spans="1:23" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="25"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
       <c r="T70" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="U70" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="V70" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V70" s="30"/>
+    </row>
+    <row r="71" spans="1:23" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="25"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
       <c r="T71" t="s">
+        <v>22</v>
+      </c>
+      <c r="U71" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V71" s="30"/>
+    </row>
+    <row r="72" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>105</v>
+      </c>
+      <c r="U72" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="V72" s="30"/>
+    </row>
+    <row r="73" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T73" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="U73" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="V73" s="30"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
+        <v>3</v>
+      </c>
+      <c r="U74" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="V74" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W74" s="15"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T75" t="s">
+        <v>112</v>
+      </c>
+      <c r="U75" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="V75" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W75" s="15"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="V76" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W76" s="15"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T77" t="s">
         <v>111</v>
       </c>
-      <c r="U71" s="30" t="s">
+      <c r="U77" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V71" s="30" t="s">
+      <c r="V77" s="30" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:22" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="15"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="63">
         <v>2</v>
       </c>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
       <c r="J78" s="61">
         <v>1</v>
       </c>
-      <c r="K78" s="77">
+      <c r="K78" s="79">
         <v>80</v>
       </c>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77">
+      <c r="L78" s="79"/>
+      <c r="M78" s="79">
         <f>K78*J78</f>
         <v>80</v>
       </c>
-      <c r="N78" s="77"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N78" s="79"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
       <c r="B79" s="81" t="s">
         <v>54</v>
@@ -3856,180 +3911,184 @@
       <c r="H79" s="81"/>
       <c r="I79" s="81"/>
       <c r="J79" s="59"/>
-      <c r="K79" s="82"/>
-      <c r="L79" s="82"/>
-      <c r="M79" s="82"/>
-      <c r="N79" s="82"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="63"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
       <c r="J80" s="59"/>
-      <c r="K80" s="82"/>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="82"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="80"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
       <c r="J81" s="61"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="63"/>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
       <c r="J82" s="61"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="63"/>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
       <c r="J83" s="61"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="63"/>
-      <c r="B84" s="79" t="s">
+      <c r="B84" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
       <c r="J84" s="61"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="63"/>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="61"/>
-      <c r="K85" s="106"/>
-      <c r="L85" s="106"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="77"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="63"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
       <c r="J86" s="61"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="77"/>
-      <c r="N86" s="77"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="63"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
       <c r="J87" s="61"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="63"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
       <c r="J88" s="61"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="63"/>
-      <c r="B89" s="83" t="s">
+      <c r="B89" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="61"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E90"/>
@@ -4039,6 +4098,177 @@
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0"/>
   <dataConsolidate/>
   <mergeCells count="195">
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="B80:I80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A64:F68"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="J6:N8"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="I64:N68"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:I43"/>
     <mergeCell ref="B86:I86"/>
     <mergeCell ref="B87:I87"/>
     <mergeCell ref="B88:I88"/>
@@ -4063,177 +4293,6 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="I64:N68"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="J6:N8"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A64:F68"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="9">
